--- a/state_owned_0_percent_more_rows.xlsx
+++ b/state_owned_0_percent_more_rows.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I11"/>
+  <dimension ref="A1:J11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -442,35 +442,40 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>LN_Assets</t>
+          <t>LOANS</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>ASSETS</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>DEPOSITS_ASSETS</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>PROFIT_BT_ASSETS</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>COST_TO_INCOME</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>EQUITY_ASSETS</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>LN_Los_res</t>
-        </is>
-      </c>
       <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>LLOSS_RES_ON_GLOANS</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>DELTA_LOANS</t>
         </is>
@@ -518,6 +523,11 @@
           <t>mean</t>
         </is>
       </c>
+      <c r="J2" s="1" t="inlineStr">
+        <is>
+          <t>mean</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -526,28 +536,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>32</v>
+        <v>4</v>
       </c>
       <c r="C4" t="n">
-        <v>32</v>
+        <v>4</v>
       </c>
       <c r="D4" t="n">
-        <v>32</v>
+        <v>4</v>
       </c>
       <c r="E4" t="n">
-        <v>32</v>
+        <v>4</v>
       </c>
       <c r="F4" t="n">
-        <v>32</v>
+        <v>4</v>
       </c>
       <c r="G4" t="n">
-        <v>32</v>
+        <v>4</v>
       </c>
       <c r="H4" t="n">
-        <v>32</v>
+        <v>4</v>
       </c>
       <c r="I4" t="n">
-        <v>32</v>
+        <v>4</v>
+      </c>
+      <c r="J4" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="5">
@@ -557,28 +570,31 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>48.50545632633244</v>
+        <v>538.8430021778858</v>
       </c>
       <c r="C5" t="n">
-        <v>13.96210264603772</v>
+        <v>63058205.90881427</v>
       </c>
       <c r="D5" t="n">
-        <v>0.5852070928048267</v>
+        <v>88713309.45635606</v>
       </c>
       <c r="E5" t="n">
-        <v>2.021283165617946</v>
+        <v>508.65933842943</v>
       </c>
       <c r="F5" t="n">
-        <v>70.27460319940477</v>
+        <v>511.9713160308331</v>
       </c>
       <c r="G5" t="n">
-        <v>0.1515726861862718</v>
+        <v>562.8626290986857</v>
       </c>
       <c r="H5" t="n">
-        <v>1.581251757365636</v>
+        <v>508.4892170083426</v>
       </c>
       <c r="I5" t="n">
-        <v>0.187470397450899</v>
+        <v>536.8728387298132</v>
+      </c>
+      <c r="J5" t="n">
+        <v>423.7487385707553</v>
       </c>
     </row>
     <row r="6">
@@ -588,28 +604,31 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>30.90444887464416</v>
+        <v>996.9993783631344</v>
       </c>
       <c r="C6" t="n">
-        <v>2.18043381418512</v>
+        <v>117906105.6489995</v>
       </c>
       <c r="D6" t="n">
-        <v>0.1564441657450315</v>
+        <v>165359509.9865687</v>
       </c>
       <c r="E6" t="n">
-        <v>1.295264167889659</v>
+        <v>1016.227148557092</v>
       </c>
       <c r="F6" t="n">
-        <v>13.34077087592272</v>
+        <v>1014.029142234896</v>
       </c>
       <c r="G6" t="n">
-        <v>0.07337827695080439</v>
+        <v>980.9612058399106</v>
       </c>
       <c r="H6" t="n">
-        <v>0.5524074235470952</v>
+        <v>1016.340559795097</v>
       </c>
       <c r="I6" t="n">
-        <v>0.2382090795049518</v>
+        <v>998.3407684563336</v>
+      </c>
+      <c r="J6" t="n">
+        <v>844.8353895692857</v>
       </c>
     </row>
     <row r="7">
@@ -619,28 +638,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>3.847142857142857</v>
+        <v>4.435005657690309</v>
       </c>
       <c r="C7" t="n">
-        <v>10.90075793536586</v>
+        <v>2033</v>
       </c>
       <c r="D7" t="n">
-        <v>0.3039901132214466</v>
+        <v>2033</v>
       </c>
       <c r="E7" t="n">
-        <v>0.2311307235549548</v>
+        <v>0.1842476818780636</v>
       </c>
       <c r="F7" t="n">
-        <v>45.95916666666667</v>
+        <v>1.58588545925867</v>
       </c>
       <c r="G7" t="n">
-        <v>0.07040005812079499</v>
+        <v>20.68637178087155</v>
       </c>
       <c r="H7" t="n">
-        <v>-0.02491737511785321</v>
+        <v>0.09274056508235026</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.4225218183272702</v>
+        <v>7.795604304398017</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0.1828514983596409</v>
       </c>
     </row>
     <row r="8">
@@ -650,28 +672,31 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>24.284719125</v>
+        <v>14.56150370481202</v>
       </c>
       <c r="C8" t="n">
-        <v>12.17514095061896</v>
+        <v>1194574.717008021</v>
       </c>
       <c r="D8" t="n">
-        <v>0.4682640930195415</v>
+        <v>1886429.890353884</v>
       </c>
       <c r="E8" t="n">
-        <v>1.09822396580673</v>
+        <v>0.4689160413917431</v>
       </c>
       <c r="F8" t="n">
-        <v>63.65278571428571</v>
+        <v>1.871291733616599</v>
       </c>
       <c r="G8" t="n">
-        <v>0.1081952639702053</v>
+        <v>62.23245140562123</v>
       </c>
       <c r="H8" t="n">
-        <v>1.277463992947826</v>
+        <v>0.1392854419845989</v>
       </c>
       <c r="I8" t="n">
-        <v>0.06182720521629506</v>
+        <v>7.833214037240674</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0.3909022598477941</v>
       </c>
     </row>
     <row r="9">
@@ -681,28 +706,31 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>49.40083333333333</v>
+        <v>58.9685015269263</v>
       </c>
       <c r="C9" t="n">
-        <v>13.29124307107381</v>
+        <v>6229759.409587533</v>
       </c>
       <c r="D9" t="n">
-        <v>0.5731674733328425</v>
+        <v>9158346.723814623</v>
       </c>
       <c r="E9" t="n">
-        <v>1.633070305946569</v>
+        <v>0.7265530179210342</v>
       </c>
       <c r="F9" t="n">
-        <v>72.27053333333333</v>
+        <v>6.649689332036888</v>
       </c>
       <c r="G9" t="n">
-        <v>0.1298098998585585</v>
+        <v>98.88207230693556</v>
       </c>
       <c r="H9" t="n">
-        <v>1.563184187757694</v>
+        <v>0.432063734143903</v>
       </c>
       <c r="I9" t="n">
-        <v>0.1842915925595426</v>
+        <v>53.34787530742744</v>
+      </c>
+      <c r="J9" t="n">
+        <v>1.906051392330857</v>
       </c>
     </row>
     <row r="10">
@@ -712,28 +740,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>66.26642964285713</v>
+        <v>583.25</v>
       </c>
       <c r="C10" t="n">
-        <v>15.35037292391113</v>
+        <v>68093390.60139377</v>
       </c>
       <c r="D10" t="n">
-        <v>0.7358837117304622</v>
+        <v>95985226.2898168</v>
       </c>
       <c r="E10" t="n">
-        <v>2.57084059455542</v>
+        <v>508.9169754059594</v>
       </c>
       <c r="F10" t="n">
-        <v>78.84402857142858</v>
+        <v>516.7497136292534</v>
       </c>
       <c r="G10" t="n">
-        <v>0.1612026239025005</v>
+        <v>599.51225</v>
       </c>
       <c r="H10" t="n">
-        <v>1.830798906876002</v>
+        <v>508.7819953005018</v>
       </c>
       <c r="I10" t="n">
-        <v>0.3153621094378908</v>
+        <v>582.3875</v>
+      </c>
+      <c r="J10" t="n">
+        <v>425.2638877032384</v>
       </c>
     </row>
     <row r="11">
@@ -743,28 +774,31 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>100</v>
+        <v>2033</v>
       </c>
       <c r="C11" t="n">
-        <v>19.10276712410214</v>
+        <v>239771271.816082</v>
       </c>
       <c r="D11" t="n">
-        <v>0.8432687063063149</v>
+        <v>336534511.377795</v>
       </c>
       <c r="E11" t="n">
-        <v>5.80213946377388</v>
+        <v>2033</v>
       </c>
       <c r="F11" t="n">
-        <v>90.12359999999998</v>
+        <v>2033</v>
       </c>
       <c r="G11" t="n">
-        <v>0.3916352498136436</v>
+        <v>2033</v>
       </c>
       <c r="H11" t="n">
-        <v>2.869006086344374</v>
+        <v>2033</v>
       </c>
       <c r="I11" t="n">
-        <v>0.7066708982243982</v>
+        <v>2033</v>
+      </c>
+      <c r="J11" t="n">
+        <v>1691</v>
       </c>
     </row>
   </sheetData>
